--- a/biology/Zoologie/Encyocrypta_berlandi/Encyocrypta_berlandi.xlsx
+++ b/biology/Zoologie/Encyocrypta_berlandi/Encyocrypta_berlandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta berlandi est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta berlandi est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers le col des Roussettes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers le col des Roussettes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 12 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 12 mm
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lucien Berland[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lucien Berland.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
